--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericyl/Projects/idea/excel/src/main/java/com/ericyl/excel/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericyl/Projects/idea/excel-plus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6219E70B-911D-5947-8767-C3726AC2ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D08690-FF16-8144-A664-5476C9D9147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>测试A1</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,9 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -264,6 +265,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,11 +280,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,12 +731,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,14 +757,14 @@
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
@@ -767,13 +774,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -814,10 +821,10 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>45598</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>45567</v>
       </c>
     </row>
@@ -843,10 +850,10 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>45599</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -872,10 +879,10 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -899,10 +906,10 @@
       <c r="G7" s="2">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -928,10 +935,10 @@
       <c r="G8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -943,8 +950,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="14">
+        <v>20241001</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericyl/Projects/idea/excel-plus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D08690-FF16-8144-A664-5476C9D9147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC016F1-0D98-6246-B4EF-21AF71423C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -237,13 +237,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +294,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,8 +315,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,18 +632,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4" ht="33">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -674,7 +706,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
@@ -684,8 +716,10 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
@@ -708,17 +742,18 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,7 +766,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -741,39 +776,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
@@ -887,7 +922,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="A7" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="2">
         <v>23</v>
       </c>
@@ -914,9 +951,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>24</v>
       </c>
@@ -950,7 +985,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="14">
+      <c r="H9" s="8">
         <v>20241001</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -980,11 +1015,12 @@
       <c r="I11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
